--- a/model/results/mix0_ggpos_h2pos/v_demand.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_demand.xlsx
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -1620,7 +1620,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>2144833.333333332</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4">
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1842,22 +1842,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1895,7 @@
         <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36779.51020408161</v>
       </c>
       <c r="D14" t="n">
         <v>1656.734693877551</v>
@@ -1907,7 +1907,7 @@
         <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>36779.51020408161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +1920,7 @@
         <v>743873.8775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>183897.5510204081</v>
       </c>
       <c r="D15" t="n">
         <v>8283.673469387753</v>
@@ -1932,7 +1932,7 @@
         <v>624036.7346938775</v>
       </c>
       <c r="G15" t="n">
-        <v>183897.5510204081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +1945,7 @@
         <v>1322442.448979591</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>326928.9795918365</v>
       </c>
       <c r="D16" t="n">
         <v>14726.53061224489</v>
@@ -1957,7 +1957,7 @@
         <v>1109398.639455782</v>
       </c>
       <c r="G16" t="n">
-        <v>326928.9795918365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>495915.9183673469</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>122598.3673469387</v>
       </c>
       <c r="D17" t="n">
         <v>5522.448979591836</v>
@@ -1982,7 +1982,7 @@
         <v>416024.4897959183</v>
       </c>
       <c r="G17" t="n">
-        <v>122598.3673469387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2095,7 +2095,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
       <c r="D22" t="n">
         <v>3681.632653061224</v>
@@ -2107,7 +2107,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2120,7 @@
         <v>115713.7142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>28606.2857142857</v>
       </c>
       <c r="D23" t="n">
         <v>1288.571428571428</v>
@@ -2132,7 +2132,7 @@
         <v>97072.38095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>28606.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2145,7 +2145,7 @@
         <v>727343.3469387754</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>179810.9387755101</v>
       </c>
       <c r="D24" t="n">
         <v>8099.591836734692</v>
@@ -2157,7 +2157,7 @@
         <v>610169.2517006802</v>
       </c>
       <c r="G24" t="n">
-        <v>179810.9387755101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2195,7 +2195,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
       <c r="D26" t="n">
         <v>3681.632653061224</v>
@@ -2207,7 +2207,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2220,16 +2220,16 @@
         <v>1653.053061224489</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897954</v>
+        <v>408.6612244897962</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530608</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319727</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632653075</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598637</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
-        <v>2043.306122448978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2270,7 +2270,7 @@
         <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>49039.34693877548</v>
       </c>
       <c r="D29" t="n">
         <v>2208.979591836734</v>
@@ -2282,7 +2282,7 @@
         <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
-        <v>49039.34693877548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2320,7 +2320,7 @@
         <v>446324.3265306122</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
       <c r="D31" t="n">
         <v>4970.204081632652</v>
@@ -2332,7 +2332,7 @@
         <v>374422.0408163265</v>
       </c>
       <c r="G31" t="n">
-        <v>110338.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2420,7 +2420,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -2432,7 +2432,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2570,7 +2570,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -2582,7 +2582,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2595,7 +2595,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -2607,7 +2607,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2620,7 +2620,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -2632,7 +2632,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2693,22 +2693,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703806</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>3031415.727891146</v>
+        <v>5514534.077324259</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.725290298461915e-08</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4113417.605442178</v>
+        <v>1630299.256009072</v>
       </c>
     </row>
     <row r="3">
@@ -2768,13 +2768,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>342616.9444444444</v>
       </c>
     </row>
     <row r="6">
@@ -2796,19 +2796,19 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>2186916.666666666</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2896,7 +2896,7 @@
         <v>1653053.06122449</v>
       </c>
       <c r="C10" t="n">
-        <v>408661.2244897957</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>18408.16326530612</v>
@@ -2908,7 +2908,7 @@
         <v>1386748.299319728</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>408661.2244897957</v>
       </c>
     </row>
     <row r="11">
@@ -2921,7 +2921,7 @@
         <v>264488.4897959183</v>
       </c>
       <c r="C11" t="n">
-        <v>65385.79591836731</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2945.306122448979</v>
@@ -2933,7 +2933,7 @@
         <v>221879.7278911564</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>65385.79591836731</v>
       </c>
     </row>
     <row r="12">
@@ -2943,22 +2943,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918365</v>
       </c>
     </row>
     <row r="13">
@@ -2996,7 +2996,7 @@
         <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>36779.51020408161</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1656.734693877551</v>
@@ -3008,7 +3008,7 @@
         <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>36779.51020408161</v>
       </c>
     </row>
     <row r="15">
@@ -3021,7 +3021,7 @@
         <v>743873.8775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>183897.5510204081</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>8283.673469387753</v>
@@ -3033,7 +3033,7 @@
         <v>624036.7346938775</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>183897.5510204081</v>
       </c>
     </row>
     <row r="16">
@@ -3071,7 +3071,7 @@
         <v>495915.9183673469</v>
       </c>
       <c r="C17" t="n">
-        <v>122598.3673469387</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>5522.448979591836</v>
@@ -3083,7 +3083,7 @@
         <v>416024.4897959183</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>122598.3673469387</v>
       </c>
     </row>
     <row r="18">
@@ -3121,7 +3121,7 @@
         <v>859587.5918367347</v>
       </c>
       <c r="C19" t="n">
-        <v>212503.8367346938</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>9572.244897959183</v>
@@ -3133,7 +3133,7 @@
         <v>721109.1156462585</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>212503.8367346938</v>
       </c>
     </row>
     <row r="20">
@@ -3146,7 +3146,7 @@
         <v>16530.5306122449</v>
       </c>
       <c r="C20" t="n">
-        <v>4086.612244897957</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>184.0816326530612</v>
@@ -3158,7 +3158,7 @@
         <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4086.612244897957</v>
       </c>
     </row>
     <row r="21">
@@ -3171,7 +3171,7 @@
         <v>446324.3265306122</v>
       </c>
       <c r="C21" t="n">
-        <v>110338.5306122448</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>4970.204081632652</v>
@@ -3183,7 +3183,7 @@
         <v>374422.0408163265</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
     </row>
     <row r="22">
@@ -3221,7 +3221,7 @@
         <v>115713.7142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>28606.2857142857</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1288.571428571428</v>
@@ -3233,7 +3233,7 @@
         <v>97072.38095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>28606.2857142857</v>
       </c>
     </row>
     <row r="24">
@@ -3271,7 +3271,7 @@
         <v>611629.6326530612</v>
       </c>
       <c r="C25" t="n">
-        <v>151204.6530612244</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>6811.020408163265</v>
@@ -3283,7 +3283,7 @@
         <v>513096.8707482993</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>151204.6530612244</v>
       </c>
     </row>
     <row r="26">
@@ -3296,7 +3296,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
       <c r="D26" t="n">
         <v>3681.632653061224</v>
@@ -3308,7 +3308,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3321,19 +3321,19 @@
         <v>1653.053061224489</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897954</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530608</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319727</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>408.6612244897962</v>
       </c>
     </row>
     <row r="28">
@@ -3346,19 +3346,19 @@
         <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>92.04081632653059</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6933.741496598638</v>
+      </c>
+      <c r="G28" t="n">
         <v>2043.306122448978</v>
-      </c>
-      <c r="D28" t="n">
-        <v>92.0408163265305</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6933.741496598637</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3371,7 +3371,7 @@
         <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>49039.34693877548</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>2208.979591836734</v>
@@ -3383,7 +3383,7 @@
         <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49039.34693877548</v>
       </c>
     </row>
     <row r="30">
@@ -3421,7 +3421,7 @@
         <v>446324.3265306122</v>
       </c>
       <c r="C31" t="n">
-        <v>110338.5306122448</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>4970.204081632652</v>
@@ -3433,7 +3433,7 @@
         <v>374422.0408163265</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
     </row>
     <row r="32">
@@ -3446,7 +3446,7 @@
         <v>99183.18367346936</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>24519.67346938774</v>
       </c>
       <c r="D32" t="n">
         <v>1104.489795918367</v>
@@ -3458,7 +3458,7 @@
         <v>83204.89795918367</v>
       </c>
       <c r="G32" t="n">
-        <v>24519.67346938774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3471,7 +3471,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -3483,7 +3483,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -3496,7 +3496,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -3508,7 +3508,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -3533,7 +3533,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="36">
@@ -3546,7 +3546,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -3558,7 +3558,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="37">
@@ -3571,7 +3571,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -3583,7 +3583,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -3621,7 +3621,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -3633,7 +3633,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="40">
@@ -3696,7 +3696,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -3708,7 +3708,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="43">
@@ -3721,7 +3721,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -3733,7 +3733,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>5290428.887981853</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1854404.445351479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3847,7 +3847,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>5633045.832426288</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1511787.500907044</v>
       </c>
     </row>
     <row r="5">
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
     </row>
     <row r="6">
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407561</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.5413693189621e-08</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>2186916.666666653</v>
       </c>
     </row>
     <row r="7">
@@ -4044,22 +4044,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918365</v>
       </c>
     </row>
     <row r="13">
@@ -4419,22 +4419,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.053061224489</v>
+        <v>1653.05306122449</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530608</v>
+        <v>18.40816326530612</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319727</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
-        <v>408.6612244897954</v>
+        <v>408.6612244897957</v>
       </c>
     </row>
     <row r="28">
@@ -4450,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.0408163265305</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598637</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
         <v>2043.306122448978</v>
@@ -4898,7 +4898,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>2776693.922902491</v>
+        <v>1258739.887755098</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4368139.41043084</v>
+        <v>5886093.445578233</v>
       </c>
     </row>
     <row r="3">
@@ -4945,16 +4945,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703856</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333319</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.5413693189621e-08</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4970,22 +4970,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407511</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666658</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
-        <v>3.725290298461915e-08</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
     </row>
     <row r="6">
@@ -4998,7 +4998,7 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5098,7 +5098,7 @@
         <v>1653053.06122449</v>
       </c>
       <c r="C10" t="n">
-        <v>408661.2244897957</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>18408.16326530612</v>
@@ -5110,7 +5110,7 @@
         <v>1386748.299319728</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>408661.2244897957</v>
       </c>
     </row>
     <row r="11">
@@ -5123,7 +5123,7 @@
         <v>264488.4897959183</v>
       </c>
       <c r="C11" t="n">
-        <v>65385.79591836731</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2945.306122448979</v>
@@ -5135,7 +5135,7 @@
         <v>221879.7278911564</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>65385.79591836731</v>
       </c>
     </row>
     <row r="12">
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979591</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>32692.89795918364</v>
+        <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224487</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>214896.8979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>53125.95918367344</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>2393.061224489796</v>
@@ -5185,7 +5185,7 @@
         <v>180277.2789115646</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53125.95918367344</v>
       </c>
     </row>
     <row r="14">
@@ -5248,7 +5248,7 @@
         <v>1322442.448979591</v>
       </c>
       <c r="C16" t="n">
-        <v>326928.9795918365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>14726.53061224489</v>
@@ -5260,7 +5260,7 @@
         <v>1109398.639455782</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>326928.9795918365</v>
       </c>
     </row>
     <row r="17">
@@ -5323,7 +5323,7 @@
         <v>859587.5918367347</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>212503.8367346938</v>
       </c>
       <c r="D19" t="n">
         <v>9572.244897959183</v>
@@ -5335,7 +5335,7 @@
         <v>721109.1156462585</v>
       </c>
       <c r="G19" t="n">
-        <v>212503.8367346938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5348,7 +5348,7 @@
         <v>16530.5306122449</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4086.612244897957</v>
       </c>
       <c r="D20" t="n">
         <v>184.0816326530612</v>
@@ -5360,7 +5360,7 @@
         <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
-        <v>4086.612244897957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5373,7 +5373,7 @@
         <v>446324.3265306122</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
       <c r="D21" t="n">
         <v>4970.204081632652</v>
@@ -5385,7 +5385,7 @@
         <v>374422.0408163265</v>
       </c>
       <c r="G21" t="n">
-        <v>110338.5306122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5398,7 +5398,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>3681.632653061224</v>
@@ -5410,7 +5410,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="23">
@@ -5423,7 +5423,7 @@
         <v>115713.7142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>28606.2857142857</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1288.571428571428</v>
@@ -5435,7 +5435,7 @@
         <v>97072.38095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>28606.2857142857</v>
       </c>
     </row>
     <row r="24">
@@ -5520,19 +5520,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.053061224491</v>
+        <v>1653.05306122449</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897925</v>
+        <v>408.6612244897957</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530558</v>
+        <v>18.40816326530612</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319726</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -5545,22 +5545,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8265.265306122456</v>
+        <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632652822</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598633</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
-        <v>2043.306122448966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5573,7 +5573,7 @@
         <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>49039.34693877548</v>
       </c>
       <c r="D29" t="n">
         <v>2208.979591836734</v>
@@ -5585,7 +5585,7 @@
         <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
-        <v>49039.34693877548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5598,7 +5598,7 @@
         <v>49591.59183673468</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12259.83673469387</v>
       </c>
       <c r="D30" t="n">
         <v>552.2448979591835</v>
@@ -5610,7 +5610,7 @@
         <v>41602.44897959183</v>
       </c>
       <c r="G30" t="n">
-        <v>12259.83673469387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5723,7 +5723,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -5735,7 +5735,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5748,7 +5748,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -5760,7 +5760,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5798,7 +5798,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -5810,7 +5810,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5873,7 +5873,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -5885,7 +5885,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="42">
@@ -6021,22 +6021,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703806</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>3448633.26530611</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.725290298461915e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3696200.068027213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6049,7 +6049,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>876423.4058956879</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6268409.927437644</v>
       </c>
     </row>
     <row r="5">
@@ -6071,22 +6071,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962963117</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342616.9444444319</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.72222216</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.5413693189621e-08</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6271,19 +6271,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214896.8979591839</v>
+        <v>214896.8979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>53125.95918367303</v>
+        <v>53125.95918367344</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.061224489725</v>
+        <v>2393.061224489796</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>180277.2789115644</v>
+        <v>180277.2789115646</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6396,22 +6396,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165305.3061224491</v>
+        <v>165305.3061224489</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530564</v>
+        <v>1840.816326530612</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>138674.8299319727</v>
+        <v>138674.8299319728</v>
       </c>
       <c r="G18" t="n">
-        <v>40866.1224489793</v>
+        <v>40866.12244897956</v>
       </c>
     </row>
     <row r="19">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367356</v>
+        <v>859587.5918367347</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -6496,22 +6496,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.632653061128</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>277349.6598639453</v>
+        <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.2448979586</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="23">
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611629.6326530619</v>
+        <v>611629.6326530612</v>
       </c>
       <c r="C25" t="n">
-        <v>151204.6530612231</v>
+        <v>151204.6530612244</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163042</v>
+        <v>6811.020408163265</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>513096.8707482987</v>
+        <v>513096.8707482993</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -6596,22 +6596,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.632653061128</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277349.6598639453</v>
+        <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.2448979586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.053061224491</v>
+        <v>1653.05306122449</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897925</v>
+        <v>408.6612244897957</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530558</v>
+        <v>18.40816326530612</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319726</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -6646,19 +6646,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8265.265306122456</v>
+        <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
-        <v>2043.306122448965</v>
+        <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632652822</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598632</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -6699,7 +6699,7 @@
         <v>49591.59183673468</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12259.83673469387</v>
       </c>
       <c r="D30" t="n">
         <v>552.2448979591835</v>
@@ -6711,7 +6711,7 @@
         <v>41602.44897959183</v>
       </c>
       <c r="G30" t="n">
-        <v>12259.83673469387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6774,7 +6774,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -6786,7 +6786,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6799,7 +6799,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -6811,7 +6811,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6849,7 +6849,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -6861,7 +6861,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="37">
@@ -6924,7 +6924,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -6936,7 +6936,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6999,7 +6999,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -7011,7 +7011,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7097,10 +7097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7144833.333333335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C3" t="n">
-        <v>6085190.280272106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1059643.053061228</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333333</v>
+        <v>6791620.792743765</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>353212.5405895698</v>
       </c>
     </row>
     <row r="5">
@@ -7172,16 +7172,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>408661.2244897957</v>
       </c>
       <c r="D10" t="n">
-        <v>18408.16326530612</v>
+        <v>18408.16326530621</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7325,10 +7325,10 @@
         <v>264488.4897959183</v>
       </c>
       <c r="C11" t="n">
-        <v>65385.79591836731</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448979</v>
+        <v>2945.306122448993</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>221879.7278911564</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>65385.79591836731</v>
       </c>
     </row>
     <row r="12">
@@ -7353,7 +7353,7 @@
         <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224489</v>
+        <v>1472.653061224496</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7372,22 +7372,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214896.8979591839</v>
+        <v>214896.8979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>53125.95918367303</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.061224489725</v>
+        <v>2393.061224489807</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>180277.2789115644</v>
+        <v>180277.2789115646</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53125.95918367344</v>
       </c>
     </row>
     <row r="14">
@@ -7397,13 +7397,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102042</v>
+        <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877553</v>
+        <v>1656.734693877558</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>36779.51020408163</v>
+        <v>36779.51020408161</v>
       </c>
     </row>
     <row r="15">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8283.673469387753</v>
+        <v>8283.673469387793</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14726.53061224489</v>
+        <v>14726.53061224496</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>122598.3673469387</v>
       </c>
       <c r="D17" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591862</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7500,10 +7500,10 @@
         <v>165305.3061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>40866.12244897956</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530612</v>
+        <v>1840.81632653062</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>138674.8299319728</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>40866.12244897956</v>
       </c>
     </row>
     <row r="19">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530612</v>
+        <v>184.0816326530621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632675</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.632653061224</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="23">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115713.7142857144</v>
+        <v>115713.7142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>28606.2857142857</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.57142857139</v>
+        <v>1288.571428571434</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97072.38095238083</v>
+        <v>97072.38095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>28606.28571428548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7650,10 +7650,10 @@
         <v>727343.3469387754</v>
       </c>
       <c r="C24" t="n">
-        <v>179810.9387755101</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734692</v>
+        <v>8099.59183673473</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>610169.2517006802</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>179810.9387755101</v>
       </c>
     </row>
     <row r="25">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163265</v>
+        <v>6811.020408163296</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7700,10 +7700,10 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.632653061224</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="27">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530615</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7750,10 +7750,10 @@
         <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632653059</v>
+        <v>92.04081632653103</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
-        <v>2043.306122448978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7775,10 +7775,10 @@
         <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>49039.34693877548</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836734</v>
+        <v>2208.979591836744</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
-        <v>49039.34693877548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7800,10 +7800,10 @@
         <v>49591.59183673468</v>
       </c>
       <c r="C30" t="n">
-        <v>12259.83673469387</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>552.2448979591835</v>
+        <v>552.2448979591861</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>41602.44897959183</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>12259.83673469387</v>
       </c>
     </row>
     <row r="31">
@@ -7825,10 +7825,10 @@
         <v>446324.3265306122</v>
       </c>
       <c r="C31" t="n">
-        <v>110338.5306122448</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632675</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>374422.0408163265</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
     </row>
     <row r="32">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.489795918367</v>
+        <v>1104.489795918372</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -7912,7 +7912,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -8075,7 +8075,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -8087,7 +8087,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="42">
@@ -8198,10 +8198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7144833.333333335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C4" t="n">
-        <v>6877900.113378682</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>266933.2199546509</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -8273,16 +8273,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8423,22 +8423,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264488.4897959186</v>
+        <v>264488.4897959183</v>
       </c>
       <c r="C11" t="n">
-        <v>65385.79591836688</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448902</v>
+        <v>2945.306122448979</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221879.7278911562</v>
+        <v>221879.7278911564</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>65385.79591836731</v>
       </c>
     </row>
     <row r="12">
@@ -8451,7 +8451,7 @@
         <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>32692.89795918365</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1472.653061224489</v>
@@ -8463,7 +8463,7 @@
         <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>32692.89795918365</v>
       </c>
     </row>
     <row r="13">
@@ -8476,7 +8476,7 @@
         <v>214896.8979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>53125.95918367344</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>2393.061224489796</v>
@@ -8488,7 +8488,7 @@
         <v>180277.2789115646</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53125.95918367344</v>
       </c>
     </row>
     <row r="14">
@@ -8501,7 +8501,7 @@
         <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>36779.51020408161</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1656.734693877551</v>
@@ -8513,7 +8513,7 @@
         <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>36779.51020408161</v>
       </c>
     </row>
     <row r="15">
@@ -8523,22 +8523,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743873.8775510212</v>
+        <v>743873.8775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>183897.5510204067</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8283.673469387511</v>
+        <v>8283.673469387753</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>624036.7346938768</v>
+        <v>624036.7346938775</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>183897.5510204081</v>
       </c>
     </row>
     <row r="16">
@@ -8551,7 +8551,7 @@
         <v>1322442.448979591</v>
       </c>
       <c r="C16" t="n">
-        <v>326928.9795918365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>14726.53061224489</v>
@@ -8563,7 +8563,7 @@
         <v>1109398.639455782</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>326928.9795918365</v>
       </c>
     </row>
     <row r="17">
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495915.9183673474</v>
+        <v>495915.9183673469</v>
       </c>
       <c r="C17" t="n">
-        <v>122598.3673469387</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>5522.448979591836</v>
@@ -8588,7 +8588,7 @@
         <v>416024.4897959183</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>122598.3673469387</v>
       </c>
     </row>
     <row r="18">
@@ -8601,7 +8601,7 @@
         <v>165305.3061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>40866.12244897956</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1840.816326530612</v>
@@ -8613,7 +8613,7 @@
         <v>138674.8299319728</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>40866.12244897956</v>
       </c>
     </row>
     <row r="19">
@@ -8623,22 +8623,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367356</v>
+        <v>859587.5918367347</v>
       </c>
       <c r="C19" t="n">
-        <v>212503.8367346921</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9572.244897958901</v>
+        <v>9572.244897959183</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>721109.1156462576</v>
+        <v>721109.1156462585</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>212503.8367346938</v>
       </c>
     </row>
     <row r="20">
@@ -8651,7 +8651,7 @@
         <v>16530.5306122449</v>
       </c>
       <c r="C20" t="n">
-        <v>4086.612244897957</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>184.0816326530612</v>
@@ -8663,7 +8663,7 @@
         <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4086.612244897957</v>
       </c>
     </row>
     <row r="21">
@@ -8673,22 +8673,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>446324.3265306127</v>
+        <v>446324.3265306122</v>
       </c>
       <c r="C21" t="n">
-        <v>110338.530612244</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632506</v>
+        <v>4970.204081632652</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>374422.040816326</v>
+        <v>374422.0408163265</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
     </row>
     <row r="22">
@@ -8701,7 +8701,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>3681.632653061224</v>
@@ -8713,7 +8713,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="23">
@@ -8723,22 +8723,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115713.7142857144</v>
+        <v>115713.7142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>28606.28571428548</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.57142857139</v>
+        <v>1288.571428571428</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97072.38095238083</v>
+        <v>97072.38095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>28606.2857142857</v>
       </c>
     </row>
     <row r="24">
@@ -8748,22 +8748,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>727343.3469387762</v>
+        <v>727343.3469387754</v>
       </c>
       <c r="C24" t="n">
-        <v>179810.9387755087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734454</v>
+        <v>8099.591836734692</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>610169.2517006795</v>
+        <v>610169.2517006802</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>179810.9387755101</v>
       </c>
     </row>
     <row r="25">
@@ -8773,22 +8773,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611629.6326530619</v>
+        <v>611629.6326530612</v>
       </c>
       <c r="C25" t="n">
-        <v>151204.6530612231</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163042</v>
+        <v>6811.020408163265</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>513096.8707482987</v>
+        <v>513096.8707482993</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>151204.6530612244</v>
       </c>
     </row>
     <row r="26">
@@ -8801,7 +8801,7 @@
         <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
-        <v>81732.24489795913</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>3681.632653061224</v>
@@ -8813,7 +8813,7 @@
         <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="27">
@@ -8826,7 +8826,7 @@
         <v>1653.05306122449</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897957</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>18.40816326530612</v>
@@ -8838,7 +8838,7 @@
         <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>408.6612244897957</v>
       </c>
     </row>
     <row r="28">
@@ -8851,7 +8851,7 @@
         <v>8265.265306122448</v>
       </c>
       <c r="C28" t="n">
-        <v>2043.306122448978</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>92.04081632653059</v>
@@ -8863,7 +8863,7 @@
         <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2043.306122448978</v>
       </c>
     </row>
     <row r="29">
@@ -8873,19 +8873,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198366.367346939</v>
+        <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>49039.3469387751</v>
+        <v>49039.34693877558</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836669</v>
+        <v>2208.979591836734</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166409.7959183671</v>
+        <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -8898,19 +8898,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49591.59183673474</v>
+        <v>49591.59183673468</v>
       </c>
       <c r="C30" t="n">
-        <v>12259.83673469378</v>
+        <v>12259.8367346939</v>
       </c>
       <c r="D30" t="n">
-        <v>552.2448979591676</v>
+        <v>552.2448979591835</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41602.44897959178</v>
+        <v>41602.44897959183</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -8923,22 +8923,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446324.3265306127</v>
+        <v>446324.3265306122</v>
       </c>
       <c r="C31" t="n">
-        <v>110338.530612244</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632506</v>
+        <v>4970.204081632652</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>374422.040816326</v>
+        <v>374422.0408163265</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110338.5306122448</v>
       </c>
     </row>
     <row r="32">
@@ -8951,10 +8951,10 @@
         <v>99183.18367346936</v>
       </c>
       <c r="C32" t="n">
-        <v>24519.67346938774</v>
+        <v>24519.67346938779</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.489795918369</v>
+        <v>1104.489795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -8988,7 +8988,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -9001,7 +9001,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -9013,7 +9013,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -9026,7 +9026,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -9038,7 +9038,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="36">
@@ -9051,7 +9051,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222222</v>
+        <v>14702.25306122566</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -9063,7 +9063,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>59209.96916099657</v>
       </c>
     </row>
     <row r="37">
@@ -9151,7 +9151,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -9163,7 +9163,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -9176,7 +9176,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -9188,7 +9188,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="42">
@@ -9201,7 +9201,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -9213,7 +9213,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="43">
@@ -9299,10 +9299,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2267264.975056695</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>4877568.35827664</v>
       </c>
     </row>
     <row r="3">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703708</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C4" t="n">
-        <v>4454181.641723353</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2690651.69160998</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9383,13 +9383,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9499,19 +9499,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1653053.061224489</v>
+        <v>1653053.06122449</v>
       </c>
       <c r="C10" t="n">
-        <v>408661.2244897955</v>
+        <v>408661.2244897957</v>
       </c>
       <c r="D10" t="n">
-        <v>18408.16326530608</v>
+        <v>18408.16326530621</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1386748.299319727</v>
+        <v>1386748.299319728</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9524,19 +9524,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264488.4897959186</v>
+        <v>264488.4897959183</v>
       </c>
       <c r="C11" t="n">
-        <v>65385.79591836688</v>
+        <v>65385.79591836731</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448902</v>
+        <v>2945.306122448979</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221879.7278911562</v>
+        <v>221879.7278911564</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9549,19 +9549,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>53125.95918367344</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.0612244898</v>
+        <v>2393.061224489807</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9599,19 +9599,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102042</v>
+        <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>36779.51020408128</v>
+        <v>36779.51020408161</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877495</v>
+        <v>1656.734693877558</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>124807.3469387754</v>
+        <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14726.53061224487</v>
+        <v>14726.53061224489</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>1109398.639455782</v>
       </c>
       <c r="G16" t="n">
-        <v>326928.9795918363</v>
+        <v>326928.9795918365</v>
       </c>
     </row>
     <row r="17">
@@ -9674,19 +9674,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495915.9183673474</v>
+        <v>495915.9183673469</v>
       </c>
       <c r="C17" t="n">
-        <v>122598.3673469378</v>
+        <v>122598.3673469387</v>
       </c>
       <c r="D17" t="n">
-        <v>5522.448979591676</v>
+        <v>5522.448979591836</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416024.4897959179</v>
+        <v>416024.4897959183</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -9699,22 +9699,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165305.3061224491</v>
+        <v>165305.3061224489</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530575</v>
+        <v>1840.816326530612</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>138674.8299319727</v>
+        <v>138674.8299319728</v>
       </c>
       <c r="G18" t="n">
-        <v>40866.12244897935</v>
+        <v>40866.12244897956</v>
       </c>
     </row>
     <row r="19">
@@ -9724,19 +9724,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367356</v>
+        <v>859587.5918367347</v>
       </c>
       <c r="C19" t="n">
-        <v>212503.8367346921</v>
+        <v>212503.8367346938</v>
       </c>
       <c r="D19" t="n">
-        <v>9572.244897958901</v>
+        <v>9572.244897959183</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>721109.1156462576</v>
+        <v>721109.1156462585</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -9749,19 +9749,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16530.53061224491</v>
+        <v>16530.5306122449</v>
       </c>
       <c r="C20" t="n">
-        <v>4086.61224489793</v>
+        <v>4086.612244897957</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530564</v>
+        <v>184.0816326530621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13867.48299319727</v>
+        <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -9774,19 +9774,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>446324.3265306127</v>
+        <v>446324.3265306122</v>
       </c>
       <c r="C21" t="n">
-        <v>110338.530612244</v>
+        <v>110338.5306122448</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632506</v>
+        <v>4970.204081632652</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>374422.040816326</v>
+        <v>374422.0408163265</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -9799,22 +9799,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448979</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.63265306115</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>277349.6598639454</v>
+        <v>277349.6598639455</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.24489795871</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="23">
@@ -9830,7 +9830,7 @@
         <v>28606.2857142857</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.57142857143</v>
+        <v>1288.571428571434</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9849,22 +9849,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>727343.3469387762</v>
+        <v>727343.3469387754</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734454</v>
+        <v>8099.591836734692</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>610169.2517006795</v>
+        <v>610169.2517006802</v>
       </c>
       <c r="G24" t="n">
-        <v>179810.9387755087</v>
+        <v>179810.9387755101</v>
       </c>
     </row>
     <row r="25">
@@ -9880,7 +9880,7 @@
         <v>151204.6530612244</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163276</v>
+        <v>6811.020408163296</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9899,22 +9899,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448979</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.63265306115</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277349.6598639454</v>
+        <v>277349.6598639455</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.24489795871</v>
+        <v>81732.24489795913</v>
       </c>
     </row>
     <row r="27">
@@ -9927,10 +9927,10 @@
         <v>1653.05306122449</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897957</v>
+        <v>408.6612244897965</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530612</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632653059</v>
+        <v>92.04081632653103</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -9974,19 +9974,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198366.367346939</v>
+        <v>198366.3673469387</v>
       </c>
       <c r="C29" t="n">
-        <v>49039.3469387751</v>
+        <v>49039.34693877548</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836669</v>
+        <v>2208.979591836744</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166409.7959183671</v>
+        <v>166409.7959183673</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -10024,19 +10024,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446324.3265306127</v>
+        <v>446324.3265306122</v>
       </c>
       <c r="C31" t="n">
-        <v>110338.530612244</v>
+        <v>110338.5306122448</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632506</v>
+        <v>4970.204081632652</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>374422.040816326</v>
+        <v>374422.0408163265</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703812</v>
+        <v>793870.3703703725</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.725290298461915e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333282</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -10450,10 +10450,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C4" t="n">
-        <v>1680056.665759581</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5464776.667573752</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10484,13 +10484,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10600,22 +10600,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1653053.061224491</v>
+        <v>1653053.061224493</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18408.16326530558</v>
+        <v>18408.16326530509</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1386748.299319726</v>
+        <v>1386748.299319725</v>
       </c>
       <c r="G10" t="n">
-        <v>408661.2244897925</v>
+        <v>408661.2244897899</v>
       </c>
     </row>
     <row r="11">
@@ -10625,22 +10625,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264488.4897959183</v>
+        <v>264488.4897959188</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448984</v>
+        <v>2945.306122448816</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221879.7278911564</v>
+        <v>221879.727891156</v>
       </c>
       <c r="G11" t="n">
-        <v>65385.79591836731</v>
+        <v>65385.79591836637</v>
       </c>
     </row>
     <row r="12">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979594</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224408</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.863945578</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918318</v>
       </c>
     </row>
     <row r="13">
@@ -10675,22 +10675,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214896.8979591837</v>
+        <v>214896.897959184</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.061224489796</v>
+        <v>2393.06122448968</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>180277.2789115646</v>
+        <v>180277.2789115643</v>
       </c>
       <c r="G13" t="n">
-        <v>53125.95918367344</v>
+        <v>53125.95918367276</v>
       </c>
     </row>
     <row r="14">
@@ -10700,22 +10700,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102042</v>
+        <v>148774.7755102041</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877495</v>
+        <v>1656.734693877551</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>124807.3469387754</v>
+        <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>36779.51020408128</v>
+        <v>36779.51020408161</v>
       </c>
     </row>
     <row r="15">
@@ -10725,22 +10725,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743873.8775510212</v>
+        <v>743873.8775510218</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8283.673469387511</v>
+        <v>8283.673469387295</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>624036.7346938768</v>
+        <v>624036.7346938762</v>
       </c>
       <c r="G15" t="n">
-        <v>183897.5510204067</v>
+        <v>183897.5510204054</v>
       </c>
     </row>
     <row r="16">
@@ -10750,22 +10750,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1322442.448979593</v>
+        <v>1322442.448979594</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14726.53061224451</v>
+        <v>14726.53061224407</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1109398.639455781</v>
+        <v>1109398.63945578</v>
       </c>
       <c r="G16" t="n">
-        <v>326928.9795918344</v>
+        <v>326928.9795918319</v>
       </c>
     </row>
     <row r="17">
@@ -10775,22 +10775,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495915.9183673474</v>
+        <v>495915.9183673478</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5522.448979591676</v>
+        <v>5522.448979591527</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416024.4897959179</v>
+        <v>416024.4897959175</v>
       </c>
       <c r="G17" t="n">
-        <v>122598.3673469378</v>
+        <v>122598.367346937</v>
       </c>
     </row>
     <row r="18">
@@ -10800,22 +10800,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165305.3061224489</v>
+        <v>165305.3061224493</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530612</v>
+        <v>1840.816326530509</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>138674.8299319728</v>
+        <v>138674.8299319725</v>
       </c>
       <c r="G18" t="n">
-        <v>40866.12244897956</v>
+        <v>40866.12244897899</v>
       </c>
     </row>
     <row r="19">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367347</v>
+        <v>859587.5918367362</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9572.244897959183</v>
+        <v>9572.244897958719</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>721109.1156462585</v>
+        <v>721109.1156462572</v>
       </c>
       <c r="G19" t="n">
-        <v>212503.8367346938</v>
+        <v>212503.8367346911</v>
       </c>
     </row>
     <row r="20">
@@ -10850,22 +10850,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16530.53061224491</v>
+        <v>16530.5306122449</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530564</v>
+        <v>184.0816326530612</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13867.48299319727</v>
+        <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
-        <v>4086.61224489793</v>
+        <v>4086.612244897957</v>
       </c>
     </row>
     <row r="21">
@@ -10875,22 +10875,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632661</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G21" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="22">
@@ -10900,22 +10900,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>330610.6122448979</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.632653061224</v>
+        <v>3681.632653061017</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>277349.6598639455</v>
+        <v>277349.659863945</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.24489795913</v>
+        <v>81732.24489795798</v>
       </c>
     </row>
     <row r="23">
@@ -10950,22 +10950,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>727343.3469387754</v>
+        <v>727343.3469387768</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734692</v>
+        <v>8099.591836734244</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>610169.2517006802</v>
+        <v>610169.251700679</v>
       </c>
       <c r="G24" t="n">
-        <v>179810.9387755101</v>
+        <v>179810.9387755075</v>
       </c>
     </row>
     <row r="25">
@@ -10975,22 +10975,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611629.6326530612</v>
+        <v>611629.6326530623</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163265</v>
+        <v>6811.020408162883</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>513096.8707482993</v>
+        <v>513096.8707482982</v>
       </c>
       <c r="G25" t="n">
-        <v>151204.6530612244</v>
+        <v>151204.6530612223</v>
       </c>
     </row>
     <row r="26">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.632653061224</v>
+        <v>3681.632653061017</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277349.6598639455</v>
+        <v>277349.659863945</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.24489795913</v>
+        <v>81732.24489795798</v>
       </c>
     </row>
     <row r="27">
@@ -11025,22 +11025,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.05306122449</v>
+        <v>1653.053061224493</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530612</v>
+        <v>18.4081632653051</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319728</v>
+        <v>1386.748299319725</v>
       </c>
       <c r="G27" t="n">
-        <v>408.6612244897957</v>
+        <v>408.6612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836738</v>
+        <v>2208.979591836734</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -11100,22 +11100,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49591.59183673474</v>
+        <v>49591.59183673478</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>552.2448979591676</v>
+        <v>552.2448979591529</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41602.44897959178</v>
+        <v>41602.44897959175</v>
       </c>
       <c r="G30" t="n">
-        <v>12259.83673469378</v>
+        <v>12259.83673469369</v>
       </c>
     </row>
     <row r="31">
@@ -11125,22 +11125,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632661</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G31" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="32">
@@ -11150,22 +11150,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99183.18367346948</v>
+        <v>99183.18367346955</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.489795918335</v>
+        <v>1104.489795918306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>83204.89795918357</v>
+        <v>83204.89795918349</v>
       </c>
       <c r="G32" t="n">
-        <v>24519.67346938755</v>
+        <v>24519.67346938739</v>
       </c>
     </row>
     <row r="33">
@@ -11203,7 +11203,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -11215,7 +11215,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703708</v>
+        <v>793870.3703703725</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11585,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11701,22 +11701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1653053.061224491</v>
+        <v>1653053.061224493</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18408.16326530558</v>
+        <v>18408.16326530509</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1386748.299319726</v>
+        <v>1386748.299319725</v>
       </c>
       <c r="G10" t="n">
-        <v>408661.2244897925</v>
+        <v>408661.2244897899</v>
       </c>
     </row>
     <row r="11">
@@ -11726,22 +11726,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264488.4897959183</v>
+        <v>264488.4897959188</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448979</v>
+        <v>2945.306122448816</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221879.7278911564</v>
+        <v>221879.727891156</v>
       </c>
       <c r="G11" t="n">
-        <v>65385.79591836731</v>
+        <v>65385.79591836637</v>
       </c>
     </row>
     <row r="12">
@@ -11751,22 +11751,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979592</v>
+        <v>132244.2448979594</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224492</v>
+        <v>1472.653061224408</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455782</v>
+        <v>110939.863945578</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918365</v>
+        <v>32692.89795918318</v>
       </c>
     </row>
     <row r="13">
@@ -11776,22 +11776,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214896.8979591837</v>
+        <v>214896.897959184</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.061224489796</v>
+        <v>2393.06122448968</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>180277.2789115646</v>
+        <v>180277.2789115643</v>
       </c>
       <c r="G13" t="n">
-        <v>53125.95918367344</v>
+        <v>53125.95918367276</v>
       </c>
     </row>
     <row r="14">
@@ -11801,22 +11801,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102042</v>
+        <v>148774.7755102043</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877495</v>
+        <v>1656.734693877458</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>124807.3469387754</v>
+        <v>124807.3469387752</v>
       </c>
       <c r="G14" t="n">
-        <v>36779.51020408128</v>
+        <v>36779.51020408109</v>
       </c>
     </row>
     <row r="15">
@@ -11826,22 +11826,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743873.8775510212</v>
+        <v>743873.8775510218</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8283.673469387753</v>
+        <v>8283.673469387295</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>624036.7346938775</v>
+        <v>624036.7346938762</v>
       </c>
       <c r="G15" t="n">
-        <v>183897.5510204081</v>
+        <v>183897.5510204054</v>
       </c>
     </row>
     <row r="16">
@@ -11851,22 +11851,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1322442.448979593</v>
+        <v>1322442.448979594</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14726.53061224451</v>
+        <v>14726.53061224407</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1109398.639455781</v>
+        <v>1109398.63945578</v>
       </c>
       <c r="G16" t="n">
-        <v>326928.9795918344</v>
+        <v>326928.9795918319</v>
       </c>
     </row>
     <row r="17">
@@ -11876,22 +11876,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495915.9183673474</v>
+        <v>495915.9183673478</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5522.448979591845</v>
+        <v>5522.448979591527</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416024.4897959184</v>
+        <v>416024.4897959175</v>
       </c>
       <c r="G17" t="n">
-        <v>122598.3673469388</v>
+        <v>122598.367346937</v>
       </c>
     </row>
     <row r="18">
@@ -11901,22 +11901,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165305.3061224491</v>
+        <v>165305.3061224493</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530564</v>
+        <v>1840.816326530509</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>138674.8299319727</v>
+        <v>138674.8299319725</v>
       </c>
       <c r="G18" t="n">
-        <v>40866.1224489793</v>
+        <v>40866.12244897899</v>
       </c>
     </row>
     <row r="19">
@@ -11926,22 +11926,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367347</v>
+        <v>859587.5918367362</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9572.244897959183</v>
+        <v>9572.244897958719</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>721109.1156462585</v>
+        <v>721109.1156462572</v>
       </c>
       <c r="G19" t="n">
-        <v>212503.8367346938</v>
+        <v>212503.8367346911</v>
       </c>
     </row>
     <row r="20">
@@ -11951,22 +11951,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16530.53061224491</v>
+        <v>16530.53061224493</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530564</v>
+        <v>184.0816326530509</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13867.48299319727</v>
+        <v>13867.48299319725</v>
       </c>
       <c r="G20" t="n">
-        <v>4086.61224489793</v>
+        <v>4086.612244897899</v>
       </c>
     </row>
     <row r="21">
@@ -11976,22 +11976,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G21" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="22">
@@ -12001,22 +12001,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.632653061128</v>
+        <v>3681.632653061017</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>277349.6598639453</v>
+        <v>277349.659863945</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.2448979586</v>
+        <v>81732.24489795798</v>
       </c>
     </row>
     <row r="23">
@@ -12026,22 +12026,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115713.7142857143</v>
+        <v>115713.7142857145</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.571428571428</v>
+        <v>1288.571428571356</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97072.38095238095</v>
+        <v>97072.38095238074</v>
       </c>
       <c r="G23" t="n">
-        <v>28606.2857142857</v>
+        <v>28606.2857142853</v>
       </c>
     </row>
     <row r="24">
@@ -12051,22 +12051,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>727343.3469387754</v>
+        <v>727343.3469387768</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734706</v>
+        <v>8099.591836734244</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>610169.2517006802</v>
+        <v>610169.251700679</v>
       </c>
       <c r="G24" t="n">
-        <v>179810.9387755101</v>
+        <v>179810.9387755075</v>
       </c>
     </row>
     <row r="25">
@@ -12076,22 +12076,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611629.6326530612</v>
+        <v>611629.6326530623</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163265</v>
+        <v>6811.020408162883</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>513096.8707482993</v>
+        <v>513096.8707482982</v>
       </c>
       <c r="G25" t="n">
-        <v>151204.6530612244</v>
+        <v>151204.6530612223</v>
       </c>
     </row>
     <row r="26">
@@ -12101,22 +12101,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330610.6122448982</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.632653061128</v>
+        <v>3681.632653061017</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277349.6598639453</v>
+        <v>277349.659863945</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.2448979586</v>
+        <v>81732.24489795798</v>
       </c>
     </row>
     <row r="27">
@@ -12126,22 +12126,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.05306122449</v>
+        <v>1653.053061224493</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530612</v>
+        <v>18.4081632653051</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319728</v>
+        <v>1386.748299319725</v>
       </c>
       <c r="G27" t="n">
-        <v>408.6612244897957</v>
+        <v>408.6612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -12151,22 +12151,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8265.265306122448</v>
+        <v>8265.265306122463</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632653059</v>
+        <v>92.04081632652549</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598638</v>
+        <v>6933.741496598624</v>
       </c>
       <c r="G28" t="n">
-        <v>2043.306122448978</v>
+        <v>2043.306122448949</v>
       </c>
     </row>
     <row r="29">
@@ -12176,22 +12176,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198366.3673469387</v>
+        <v>198366.3673469391</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836734</v>
+        <v>2208.97959183661</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166409.7959183673</v>
+        <v>166409.795918367</v>
       </c>
       <c r="G29" t="n">
-        <v>49039.34693877548</v>
+        <v>49039.34693877479</v>
       </c>
     </row>
     <row r="30">
@@ -12201,22 +12201,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49591.59183673474</v>
+        <v>49591.59183673478</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>552.2448979591845</v>
+        <v>552.2448979591529</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41602.44897959183</v>
+        <v>41602.44897959175</v>
       </c>
       <c r="G30" t="n">
-        <v>12259.83673469388</v>
+        <v>12259.83673469369</v>
       </c>
     </row>
     <row r="31">
@@ -12226,22 +12226,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G31" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="32">
@@ -12251,22 +12251,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99183.18367346948</v>
+        <v>99183.18367346955</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.489795918335</v>
+        <v>1104.489795918306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>83204.89795918357</v>
+        <v>83204.89795918349</v>
       </c>
       <c r="G32" t="n">
-        <v>24519.67346938755</v>
+        <v>24519.67346938739</v>
       </c>
     </row>
     <row r="33">
@@ -12677,13 +12677,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333335</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703812</v>
+        <v>793870.3703703727</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13737,13 +13737,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.725290298461915e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333282</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="5">
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -13787,13 +13787,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -13903,13 +13903,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1653053.06122449</v>
+        <v>1653053.061224493</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18408.16326530615</v>
+        <v>18408.16326530621</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>1386748.299319728</v>
       </c>
       <c r="G10" t="n">
-        <v>408661.2244897957</v>
+        <v>408661.2244897964</v>
       </c>
     </row>
     <row r="11">
@@ -13928,22 +13928,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264488.4897959183</v>
+        <v>264488.4897959188</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2945.306122448979</v>
+        <v>2945.306122448816</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221879.7278911564</v>
+        <v>221879.727891156</v>
       </c>
       <c r="G11" t="n">
-        <v>65385.79591836731</v>
+        <v>65385.79591836637</v>
       </c>
     </row>
     <row r="12">
@@ -13953,22 +13953,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979592</v>
+        <v>132244.2448979594</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224489</v>
+        <v>1472.653061224408</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455782</v>
+        <v>110939.863945578</v>
       </c>
       <c r="G12" t="n">
-        <v>32692.89795918365</v>
+        <v>32692.89795918318</v>
       </c>
     </row>
     <row r="13">
@@ -13978,22 +13978,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214896.8979591837</v>
+        <v>214896.897959184</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2393.061224489796</v>
+        <v>2393.061224489807</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>180277.2789115646</v>
+        <v>180277.2789115647</v>
       </c>
       <c r="G13" t="n">
-        <v>53125.95918367344</v>
+        <v>53125.95918367353</v>
       </c>
     </row>
     <row r="14">
@@ -14003,13 +14003,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102041</v>
+        <v>148774.7755102043</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877551</v>
+        <v>1656.734693877558</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -14018,7 +14018,7 @@
         <v>124807.3469387755</v>
       </c>
       <c r="G14" t="n">
-        <v>36779.51020408161</v>
+        <v>36779.51020408167</v>
       </c>
     </row>
     <row r="15">
@@ -14028,22 +14028,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743873.8775510204</v>
+        <v>743873.8775510218</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8283.673469387753</v>
+        <v>8283.673469387295</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>624036.7346938775</v>
+        <v>624036.7346938762</v>
       </c>
       <c r="G15" t="n">
-        <v>183897.5510204081</v>
+        <v>183897.5510204054</v>
       </c>
     </row>
     <row r="16">
@@ -14053,13 +14053,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1322442.448979591</v>
+        <v>1322442.448979594</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14726.53061224492</v>
+        <v>14726.53061224496</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>1109398.639455782</v>
       </c>
       <c r="G16" t="n">
-        <v>326928.9795918365</v>
+        <v>326928.979591837</v>
       </c>
     </row>
     <row r="17">
@@ -14078,22 +14078,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495915.9183673469</v>
+        <v>495915.9183673478</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591862</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416024.4897959183</v>
+        <v>416024.4897959185</v>
       </c>
       <c r="G17" t="n">
-        <v>122598.3673469387</v>
+        <v>122598.3673469389</v>
       </c>
     </row>
     <row r="18">
@@ -14103,13 +14103,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165305.3061224489</v>
+        <v>165305.3061224493</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1840.816326530615</v>
+        <v>1840.81632653062</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>138674.8299319728</v>
       </c>
       <c r="G18" t="n">
-        <v>40866.12244897956</v>
+        <v>40866.12244897963</v>
       </c>
     </row>
     <row r="19">
@@ -14128,22 +14128,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859587.5918367347</v>
+        <v>859587.5918367362</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9572.244897959183</v>
+        <v>9572.244897959228</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>721109.1156462585</v>
+        <v>721109.1156462587</v>
       </c>
       <c r="G19" t="n">
-        <v>212503.8367346938</v>
+        <v>212503.8367346941</v>
       </c>
     </row>
     <row r="20">
@@ -14153,13 +14153,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16530.5306122449</v>
+        <v>16530.53061224493</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530612</v>
+        <v>184.0816326530621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>13867.48299319728</v>
       </c>
       <c r="G20" t="n">
-        <v>4086.612244897957</v>
+        <v>4086.612244897964</v>
       </c>
     </row>
     <row r="21">
@@ -14178,22 +14178,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G21" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="22">
@@ -14203,22 +14203,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>330610.6122448979</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3681.63265306123</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>277349.6598639455</v>
+        <v>277349.6598639456</v>
       </c>
       <c r="G22" t="n">
-        <v>81732.24489795913</v>
+        <v>81732.24489795926</v>
       </c>
     </row>
     <row r="23">
@@ -14228,22 +14228,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115713.7142857143</v>
+        <v>115713.7142857145</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.571428571428</v>
+        <v>1288.571428571434</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97072.38095238095</v>
+        <v>97072.38095238098</v>
       </c>
       <c r="G23" t="n">
-        <v>28606.2857142857</v>
+        <v>28606.28571428575</v>
       </c>
     </row>
     <row r="24">
@@ -14253,22 +14253,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>727343.3469387754</v>
+        <v>727343.3469387768</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8099.591836734692</v>
+        <v>8099.591836734244</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>610169.2517006802</v>
+        <v>610169.251700679</v>
       </c>
       <c r="G24" t="n">
-        <v>179810.9387755101</v>
+        <v>179810.9387755075</v>
       </c>
     </row>
     <row r="25">
@@ -14278,22 +14278,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611629.6326530612</v>
+        <v>611629.6326530623</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6811.020408163265</v>
+        <v>6811.020408163296</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>513096.8707482993</v>
+        <v>513096.8707482995</v>
       </c>
       <c r="G25" t="n">
-        <v>151204.6530612244</v>
+        <v>151204.6530612247</v>
       </c>
     </row>
     <row r="26">
@@ -14303,22 +14303,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330610.6122448979</v>
+        <v>330610.6122448985</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3681.63265306123</v>
+        <v>3681.632653061241</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>277349.6598639455</v>
+        <v>277349.6598639456</v>
       </c>
       <c r="G26" t="n">
-        <v>81732.24489795913</v>
+        <v>81732.24489795926</v>
       </c>
     </row>
     <row r="27">
@@ -14328,22 +14328,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1653.05306122449</v>
+        <v>1653.053061224493</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530612</v>
+        <v>18.4081632653051</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319728</v>
+        <v>1386.748299319725</v>
       </c>
       <c r="G27" t="n">
-        <v>408.6612244897957</v>
+        <v>408.6612244897898</v>
       </c>
     </row>
     <row r="28">
@@ -14353,22 +14353,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8265.265306122448</v>
+        <v>8265.265306122463</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.04081632653059</v>
+        <v>92.04081632652549</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598638</v>
+        <v>6933.741496598624</v>
       </c>
       <c r="G28" t="n">
-        <v>2043.306122448978</v>
+        <v>2043.306122448949</v>
       </c>
     </row>
     <row r="29">
@@ -14378,22 +14378,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198366.3673469387</v>
+        <v>198366.3673469391</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836734</v>
+        <v>2208.979591836744</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166409.7959183673</v>
+        <v>166409.7959183674</v>
       </c>
       <c r="G29" t="n">
-        <v>49039.34693877548</v>
+        <v>49039.34693877556</v>
       </c>
     </row>
     <row r="30">
@@ -14403,22 +14403,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49591.59183673468</v>
+        <v>49591.59183673478</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>552.2448979591835</v>
+        <v>552.2448979591529</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41602.44897959183</v>
+        <v>41602.44897959175</v>
       </c>
       <c r="G30" t="n">
-        <v>12259.83673469387</v>
+        <v>12259.83673469369</v>
       </c>
     </row>
     <row r="31">
@@ -14428,22 +14428,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446324.3265306122</v>
+        <v>446324.326530613</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4970.204081632652</v>
+        <v>4970.204081632377</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>374422.0408163265</v>
+        <v>374422.0408163257</v>
       </c>
       <c r="G31" t="n">
-        <v>110338.5306122448</v>
+        <v>110338.5306122433</v>
       </c>
     </row>
     <row r="32">
@@ -14453,22 +14453,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99183.18367346936</v>
+        <v>99183.18367346955</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.489795918367</v>
+        <v>1104.489795918306</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>83204.89795918367</v>
+        <v>83204.89795918349</v>
       </c>
       <c r="G32" t="n">
-        <v>24519.67346938774</v>
+        <v>24519.67346938739</v>
       </c>
     </row>
     <row r="33">
@@ -14879,13 +14879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -15980,13 +15980,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C5" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17006,13 +17006,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962962</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444441</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.22222222</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17081,13 +17081,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209628.3733333327</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>314442.5599999991</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>1572212.799999995</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17106,13 +17106,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925925</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>291588.8888888888</v>
+        <v>364486.111111111</v>
       </c>
       <c r="D6" t="n">
-        <v>1457944.444444444</v>
+        <v>1822430.555555555</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17831,7 +17831,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -17931,7 +17931,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -18107,13 +18107,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777777</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18160,7 +18160,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>364486.1111111109</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>1822430.555555555</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -18210,7 +18210,7 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>364486.1111111109</v>
+        <v>364486.1111111096</v>
       </c>
       <c r="D6" t="n">
         <v>1822430.555555555</v>
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.426087692379951e-09</v>
       </c>
     </row>
     <row r="7">
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444451</v>
+        <v>93644.4444444445</v>
       </c>
       <c r="C34" t="n">
         <v>86955.55555555562</v>
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -19032,19 +19032,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -19072,7 +19072,7 @@
         <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.931924418969588e-10</v>
+        <v>-4.421153732321479e-10</v>
       </c>
     </row>
     <row r="41">
@@ -19082,19 +19082,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -19110,7 +19110,7 @@
         <v>79597.77777777781</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222226</v>
@@ -19122,7 +19122,7 @@
         <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
     <row r="43">
@@ -19135,7 +19135,7 @@
         <v>79597.77777777781</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222226</v>
@@ -19147,7 +19147,7 @@
         <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
   </sheetData>
@@ -19208,13 +19208,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777777</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.693881005048752e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -19236,10 +19236,10 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -19261,7 +19261,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -19283,13 +19283,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>364486.1111111109</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>1822430.555555555</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -19311,7 +19311,7 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>364486.1111111109</v>
+        <v>364486.111111111</v>
       </c>
       <c r="D6" t="n">
         <v>1822430.555555555</v>
@@ -19636,7 +19636,7 @@
         <v>797368</v>
       </c>
       <c r="C19" t="n">
-        <v>140711.9999999999</v>
+        <v>140712</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.4444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
         <v>86955.55555555562</v>
@@ -20058,7 +20058,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -20111,7 +20111,7 @@
         <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111121</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111112</v>
@@ -20123,7 +20123,7 @@
         <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-4.185694591565566e-10</v>
       </c>
     </row>
     <row r="39">
@@ -20133,19 +20133,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -20161,7 +20161,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333341</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333334</v>
@@ -20173,7 +20173,7 @@
         <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.421153732321479e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -20183,19 +20183,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -20211,7 +20211,7 @@
         <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222226</v>
@@ -20223,7 +20223,7 @@
         <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
     <row r="43">
@@ -20309,13 +20309,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>1190805.555555555</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777777</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20384,13 +20384,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666666</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -20412,10 +20412,10 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>364486.111111111</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1822430.555555555</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -20559,19 +20559,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -20609,19 +20609,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148774.7755102041</v>
+        <v>148774.7755102043</v>
       </c>
       <c r="C14" t="n">
-        <v>36779.51020408161</v>
+        <v>36779.51020408122</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.734693877551</v>
+        <v>1656.73469387748</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>124807.3469387755</v>
+        <v>124807.3469387754</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -20759,19 +20759,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16530.5306122449</v>
+        <v>16530.53061224493</v>
       </c>
       <c r="C20" t="n">
-        <v>4086.612244897957</v>
+        <v>4086.612244897914</v>
       </c>
       <c r="D20" t="n">
-        <v>184.0816326530612</v>
+        <v>184.0816326530534</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13867.48299319728</v>
+        <v>13867.48299319726</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -20834,19 +20834,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115713.7142857143</v>
+        <v>115713.7142857145</v>
       </c>
       <c r="C23" t="n">
-        <v>28606.2857142857</v>
+        <v>28606.2857142854</v>
       </c>
       <c r="D23" t="n">
-        <v>1288.571428571428</v>
+        <v>1288.571428571374</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97072.38095238095</v>
+        <v>97072.38095238083</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -20937,16 +20937,16 @@
         <v>1653.053061224489</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897954</v>
+        <v>408.6612244897962</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530608</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319727</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -20965,13 +20965,13 @@
         <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.0408163265305</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598637</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -20984,19 +20984,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198366.3673469387</v>
+        <v>198366.3673469391</v>
       </c>
       <c r="C29" t="n">
-        <v>49039.34693877548</v>
+        <v>49039.34693877496</v>
       </c>
       <c r="D29" t="n">
-        <v>2208.979591836734</v>
+        <v>2208.97959183664</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166409.7959183673</v>
+        <v>166409.7959183671</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -21234,19 +21234,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -21284,19 +21284,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -21485,13 +21485,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666666</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -21660,19 +21660,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132244.2448979593</v>
+        <v>132244.2448979592</v>
       </c>
       <c r="C12" t="n">
-        <v>32692.89795918344</v>
+        <v>32692.89795918365</v>
       </c>
       <c r="D12" t="n">
-        <v>1472.653061224451</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110939.8639455781</v>
+        <v>110939.8639455782</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -22038,16 +22038,16 @@
         <v>1653.053061224489</v>
       </c>
       <c r="C27" t="n">
-        <v>408.6612244897954</v>
+        <v>408.6612244897965</v>
       </c>
       <c r="D27" t="n">
-        <v>18.40816326530608</v>
+        <v>18.4081632653062</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1386.748299319727</v>
+        <v>1386.748299319728</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -22066,13 +22066,13 @@
         <v>2043.306122448978</v>
       </c>
       <c r="D28" t="n">
-        <v>92.0408163265305</v>
+        <v>92.04081632653059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6933.741496598637</v>
+        <v>6933.741496598638</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -22335,19 +22335,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -22385,19 +22385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
